--- a/Resultados/V1_1.xlsx
+++ b/Resultados/V1_1.xlsx
@@ -434,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
@@ -506,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
@@ -530,7 +530,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
@@ -538,7 +538,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
@@ -546,7 +546,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
@@ -554,7 +554,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
@@ -562,7 +562,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
@@ -578,7 +578,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
@@ -594,7 +594,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
@@ -602,7 +602,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
@@ -626,7 +626,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
@@ -642,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
@@ -658,7 +658,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
@@ -666,7 +666,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
@@ -682,7 +682,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
@@ -698,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
@@ -714,7 +714,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
@@ -730,7 +730,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
@@ -738,7 +738,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
@@ -762,7 +762,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
@@ -770,7 +770,7 @@
         <v>5</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
@@ -778,7 +778,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
@@ -786,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
@@ -810,7 +810,7 @@
         <v>4</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
@@ -818,7 +818,7 @@
         <v>4</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
@@ -826,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
@@ -834,7 +834,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
@@ -842,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
@@ -850,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
@@ -858,7 +858,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
@@ -866,7 +866,7 @@
         <v>2</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
@@ -874,7 +874,7 @@
         <v>4</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
@@ -882,7 +882,7 @@
         <v>5</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
@@ -890,7 +890,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
@@ -906,7 +906,7 @@
         <v>3</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
@@ -938,7 +938,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
